--- a/ws_012/20220600_Noom채팅샘플제작.xlsx
+++ b/ws_012/20220600_Noom채팅샘플제작.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
   <si>
     <t>a000_login_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,62 @@
   </si>
   <si>
     <t>로그인전후 프로토콜 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방조인2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방참가 버튼 이벤트 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdl_b201_joinRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,12 +1105,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1082,6 +1132,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1386,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1433,7 +1489,18 @@
         <v>175</v>
       </c>
     </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="13" spans="2:6">
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
         <v>176</v>
       </c>
@@ -1471,7 +1538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="2:6">
       <c r="D17" t="s">
         <v>179</v>
       </c>
@@ -1482,33 +1549,91 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
+    <row r="21" spans="2:6">
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1674,7 +1799,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="14"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="34" t="s">
         <v>78</v>
       </c>
       <c r="N6" s="14" t="s">
@@ -1694,7 +1819,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="14"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="35" t="s">
         <v>79</v>
       </c>
       <c r="N7" s="14" t="s">
@@ -1714,7 +1839,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="14"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="35" t="s">
         <v>80</v>
       </c>
       <c r="N8" s="14" t="s">
@@ -1727,14 +1852,14 @@
       <c r="E9" s="14"/>
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="39" t="s">
         <v>159</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="15"/>
       <c r="K9" s="14"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="35" t="s">
         <v>81</v>
       </c>
       <c r="N9" s="14" t="s">
@@ -1752,145 +1877,143 @@
       <c r="J10" s="15"/>
       <c r="K10" s="14"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="19" customFormat="1" ht="12">
-      <c r="C11" s="28" t="s">
+    <row r="12" spans="2:14" s="19" customFormat="1" ht="12">
+      <c r="C12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="33" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" s="19" customFormat="1" ht="12">
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="30" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="2:14" s="19" customFormat="1" ht="12">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="2" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
+      <c r="M14" s="11"/>
+      <c r="N14" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:14">
       <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
       <c r="G15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
       <c r="M15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>83</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="2:14">
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
-        <v>24</v>
+      <c r="G16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K16" s="14"/>
       <c r="L16" s="13"/>
       <c r="M16" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>83</v>
@@ -1902,13 +2025,15 @@
       <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="15"/>
       <c r="K17" s="14"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="36" t="s">
-        <v>78</v>
+      <c r="M17" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>83</v>
@@ -1925,8 +2050,8 @@
       <c r="J18" s="15"/>
       <c r="K18" s="14"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="37" t="s">
-        <v>79</v>
+      <c r="M18" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>83</v>
@@ -1943,123 +2068,128 @@
       <c r="J19" s="15"/>
       <c r="K19" s="14"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C20" s="30" t="s">
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C21" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="B21" s="2" t="s">
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
+      <c r="M22" s="11"/>
+      <c r="N22" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="C22" s="13"/>
-      <c r="D22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="14" t="s">
-        <v>96</v>
+      <c r="H23" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="13"/>
+      <c r="M23" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="13"/>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
@@ -2070,119 +2200,110 @@
       <c r="L25" s="13"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C26" s="30" t="s">
+    <row r="26" spans="1:14">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C27" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="30" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C27" s="30" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C28" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="20"/>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
+      <c r="G29" s="11"/>
+      <c r="H29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
       <c r="H30" s="14" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="M30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14">
       <c r="C31" s="13"/>
@@ -2191,14 +2312,16 @@
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
       <c r="H31" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="K31" s="14"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="37" t="s">
-        <v>79</v>
+      <c r="M31" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>114</v>
@@ -2211,17 +2334,17 @@
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
       <c r="H32" s="14" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="15"/>
       <c r="K32" s="14"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="15" t="s">
-        <v>32</v>
+      <c r="M32" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2230,16 +2353,18 @@
       <c r="E33" s="14"/>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="15"/>
       <c r="K33" s="14"/>
       <c r="L33" s="13"/>
       <c r="M33" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2253,10 +2378,12 @@
       <c r="J34" s="15"/>
       <c r="K34" s="14"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="N34" s="14"/>
+      <c r="M34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="C35" s="13"/>
@@ -2269,100 +2396,96 @@
       <c r="J35" s="15"/>
       <c r="K35" s="14"/>
       <c r="L35" s="13"/>
+      <c r="M35" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C36" s="30" t="s">
+    <row r="36" spans="1:14">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="13"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C37" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="30" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="30" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="B37" s="2" t="s">
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12" t="s">
+      <c r="M38" s="11"/>
+      <c r="N38" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38" s="13"/>
-      <c r="D38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14">
       <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="38" t="s">
-        <v>35</v>
+      <c r="H39" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="15" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="17" t="s">
-        <v>78</v>
+      <c r="M39" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="N39" s="14"/>
     </row>
@@ -2372,17 +2495,17 @@
       <c r="E40" s="14"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="2" t="s">
-        <v>132</v>
+      <c r="H40" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="37" t="s">
-        <v>79</v>
+      <c r="M40" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="N40" s="14"/>
     </row>
@@ -2392,15 +2515,17 @@
       <c r="E41" s="14"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="14" t="s">
-        <v>133</v>
+      <c r="H41" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="I41" s="13"/>
-      <c r="J41" s="15"/>
+      <c r="J41" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="K41" s="14"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="17" t="s">
-        <v>125</v>
+      <c r="M41" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="N41" s="14"/>
     </row>
@@ -2410,14 +2535,16 @@
       <c r="E42" s="14"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="16" t="s">
-        <v>134</v>
+      <c r="H42" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="15"/>
       <c r="K42" s="14"/>
       <c r="L42" s="13"/>
-      <c r="M42" s="17"/>
+      <c r="M42" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14">
@@ -2426,129 +2553,132 @@
       <c r="E43" s="14"/>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="41" t="s">
-        <v>159</v>
+      <c r="H43" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="15"/>
       <c r="K43" s="14"/>
       <c r="L43" s="13"/>
+      <c r="M43" s="17"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C44" s="30" t="s">
+    <row r="44" spans="1:14">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="13"/>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C45" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="30" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="30" t="s">
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="1:14" s="27" customFormat="1" ht="12">
-      <c r="C45" s="30"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="30" t="s">
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="1:14" s="27" customFormat="1" ht="12">
+      <c r="C46" s="28"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="20"/>
-      <c r="B46" s="2" t="s">
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="30"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="20"/>
+      <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12" t="s">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12" t="s">
+      <c r="G47" s="11"/>
+      <c r="H47" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12" t="s">
+      <c r="J47" s="11"/>
+      <c r="K47" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L47" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12" t="s">
+      <c r="M47" s="11"/>
+      <c r="N47" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14">
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="14" t="s">
-        <v>41</v>
+      <c r="H48" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="15"/>
       <c r="K48" s="14"/>
       <c r="L48" s="13"/>
+      <c r="M48" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="2:14">
       <c r="C49" s="13"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="I49" s="13"/>
       <c r="J49" s="15"/>
       <c r="K49" s="14"/>
@@ -2568,90 +2698,96 @@
       <c r="L50" s="13"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="2:14" s="27" customFormat="1" ht="12">
-      <c r="C51" s="30" t="s">
+    <row r="51" spans="2:14">
+      <c r="C51" s="13"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="13"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="2:14" s="27" customFormat="1" ht="12">
+      <c r="C52" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="30" t="s">
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="30" t="s">
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="32"/>
-    </row>
-    <row r="52" spans="2:14" s="27" customFormat="1" ht="12">
-      <c r="C52" s="30" t="s">
+      <c r="J52" s="29"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
+    </row>
+    <row r="53" spans="2:14" s="27" customFormat="1" ht="12">
+      <c r="C53" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="32"/>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="2" t="s">
+      <c r="D53" s="37"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="L55" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="12" t="s">
+      <c r="M55" s="11"/>
+      <c r="N55" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="I55" s="13"/>
-      <c r="J55" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="2:14">
       <c r="I56" s="13"/>
       <c r="J56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="13"/>
       <c r="M56" s="15" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="2:14">
       <c r="I57" s="13"/>
-      <c r="J57" s="15"/>
+      <c r="J57" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="K57" s="14"/>
       <c r="L57" s="13"/>
+      <c r="M57" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="N57" s="14"/>
     </row>
     <row r="58" spans="2:14">
@@ -2662,85 +2798,81 @@
       <c r="N58" s="14"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="F59" s="30" t="s">
+      <c r="I59" s="13"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="13"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="F60" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="30" t="s">
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="32"/>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="44" t="s">
+      <c r="J60" s="29"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12" t="s">
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I61" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="12" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L61" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="12" t="s">
+      <c r="M61" s="11"/>
+      <c r="N61" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="H61" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="2:14">
       <c r="H62" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M62" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>114</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="2:14">
       <c r="H63" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="M63" s="37" t="s">
-        <v>79</v>
+        <v>168</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>114</v>
@@ -2748,202 +2880,247 @@
     </row>
     <row r="64" spans="2:14">
       <c r="H64" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M64" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14">
+      <c r="H65" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M64" s="15" t="s">
+      <c r="M65" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="N65" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="M65" s="15" t="s">
+    <row r="66" spans="3:14">
+      <c r="M66" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N65" s="14" t="s">
+      <c r="N66" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
-      <c r="M66" s="17" t="s">
+    <row r="67" spans="3:14">
+      <c r="M67" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="N66" s="14"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="C68" s="40" t="s">
+      <c r="N67" s="14"/>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="C69" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40" t="s">
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="40"/>
-    </row>
-    <row r="69" spans="1:14" s="46" customFormat="1">
-      <c r="M69" s="18"/>
-    </row>
-    <row r="70" spans="1:14" s="46" customFormat="1">
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="38"/>
+    </row>
+    <row r="70" spans="3:14" s="44" customFormat="1">
+      <c r="C70" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="M70" s="18"/>
     </row>
-    <row r="71" spans="1:14" s="46" customFormat="1">
+    <row r="71" spans="3:14" s="44" customFormat="1">
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:14" s="46" customFormat="1">
+    <row r="72" spans="3:14" s="44" customFormat="1">
       <c r="M72" s="18"/>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="3:14" s="44" customFormat="1">
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="3:14" s="44" customFormat="1">
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="3:14" s="44" customFormat="1">
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="3:14" s="44" customFormat="1">
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" spans="3:14" s="44" customFormat="1">
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="3:14" s="44" customFormat="1">
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="3:14" s="44" customFormat="1">
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="3:14" s="44" customFormat="1">
+      <c r="M80" s="18"/>
+    </row>
+    <row r="81" spans="1:14" s="44" customFormat="1">
+      <c r="M81" s="18"/>
+    </row>
+    <row r="82" spans="1:14" s="44" customFormat="1">
+      <c r="M82" s="18"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="10" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="13"/>
-      <c r="N73" s="14"/>
-    </row>
-    <row r="74" spans="1:14" s="21" customFormat="1">
-      <c r="C74" s="22" t="s">
+      <c r="J83" s="11"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="13"/>
+      <c r="N83" s="14"/>
+    </row>
+    <row r="84" spans="1:14" s="21" customFormat="1">
+      <c r="C84" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="23"/>
-    </row>
-    <row r="75" spans="1:14" s="21" customFormat="1">
-      <c r="C75" s="22" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" s="21" customFormat="1">
+      <c r="C85" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="23"/>
-    </row>
-    <row r="76" spans="1:14" s="21" customFormat="1">
-      <c r="C76" s="22" t="s">
+      <c r="D85" s="18"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" s="21" customFormat="1">
+      <c r="C86" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="23"/>
-    </row>
-    <row r="77" spans="1:14" s="21" customFormat="1">
-      <c r="C77" s="22"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="23"/>
-    </row>
-    <row r="78" spans="1:14" s="21" customFormat="1">
-      <c r="C78" s="22"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="23"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="C79" s="13"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="13"/>
-      <c r="N79" s="14"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="C80" s="13"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="13"/>
-      <c r="N80" s="14"/>
-    </row>
-    <row r="81" spans="3:14">
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="26"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" s="21" customFormat="1">
+      <c r="C87" s="22"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" s="21" customFormat="1">
+      <c r="C88" s="22"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="23"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="C89" s="13"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="13"/>
+      <c r="N89" s="14"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="C90" s="13"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="13"/>
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
